--- a/mapping/AFO_BAO.xlsx
+++ b/mapping/AFO_BAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="375">
   <si>
     <t>AFO_IRI</t>
   </si>
@@ -28,6 +28,12 @@
     <t>BAO_DESC</t>
   </si>
   <si>
+    <t>BAO_DEF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_9606</t>
   </si>
   <si>
@@ -130,15 +136,15 @@
     <t>http://purl.allotrope.org/ontologies/process#AFP_0003552</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
-  </si>
-  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000085</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000226</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000341</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000442</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000209</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000222</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000252</t>
   </si>
   <si>
@@ -316,6 +325,9 @@
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000244</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000364</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000405</t>
   </si>
   <si>
@@ -340,6 +352,9 @@
     <t>http://qudt.org/schema/qudt#Dimension</t>
   </si>
   <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_23367'}</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/NCBITaxon_9606'}</t>
   </si>
   <si>
@@ -442,15 +457,15 @@
     <t>{'label': 'signaling', 'prefLabel': 'signaling', 'altLabel': 'producing signal', 'name': 'AFP_0003552'}</t>
   </si>
   <si>
-    <t>{'label': 'molecular entity', 'prefLabel': 'molecular entity', 'altLabel': None, 'name': 'CHEBI_23367'}</t>
-  </si>
-  <si>
     <t>{'label': 'dye', 'prefLabel': 'dye', 'altLabel': None, 'name': 'AFM_0000085'}</t>
   </si>
   <si>
     <t>{'label': 'nucleus', 'prefLabel': 'nucleus', 'altLabel': None, 'name': 'AFM_0000226'}</t>
   </si>
   <si>
+    <t>{'label': 'cell', 'prefLabel': 'cell', 'altLabel': None, 'name': 'AFM_0000341'}</t>
+  </si>
+  <si>
     <t>{'label': 'suspension', 'prefLabel': 'suspension', 'altLabel': None, 'name': 'AFM_0000442'}</t>
   </si>
   <si>
@@ -460,7 +475,7 @@
     <t>{'label': 'organization', 'prefLabel': 'organization', 'altLabel': None, 'name': 'AFM_0001085'}</t>
   </si>
   <si>
-    <t>{'Organization'}</t>
+    <t>{'label': None, 'prefLabel': None, 'altLabel': None, 'name': 'Organization'}</t>
   </si>
   <si>
     <t>{'label': 'solvent role', 'prefLabel': 'solvent role', 'altLabel': 'solvent', 'name': 'AFRL_0000269'}</t>
@@ -505,6 +520,9 @@
     <t>{'label': 'purity (quality)', 'prefLabel': 'purity (quality)', 'altLabel': 'purity', 'name': 'AFQ_0000209'}</t>
   </si>
   <si>
+    <t>{'label': 'impurity (quality)', 'prefLabel': 'impurity (quality)', 'altLabel': 'impurity', 'name': 'AFQ_0000222'}</t>
+  </si>
+  <si>
     <t>{'label': 'molecular entity quality', 'prefLabel': 'molecular entity quality', 'altLabel': 'molecular quality', 'name': 'AFQ_0000252'}</t>
   </si>
   <si>
@@ -628,6 +646,9 @@
     <t>{'label': 'cleaning agent role', 'prefLabel': 'cleaning agent role', 'altLabel': 'detergent', 'name': 'AFRL_0000244'}</t>
   </si>
   <si>
+    <t>{'label': 'impurity role', 'prefLabel': 'impurity role', 'altLabel': 'impurity', 'name': 'AFRL_0000364'}</t>
+  </si>
+  <si>
     <t>{'label': 'researcher', 'prefLabel': 'researcher', 'altLabel': None, 'name': 'AFRL_0000405'}</t>
   </si>
   <si>
@@ -700,15 +721,15 @@
     <t>http://purl.obolibrary.org/obo/GO_0023052</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0003043</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_37958</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/GO_0005634</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CLO_0000031</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002104</t>
   </si>
   <si>
@@ -757,6 +778,9 @@
     <t>http://www.bioassayontology.org/bao#BAO_0002618</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_143130</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0002182</t>
   </si>
   <si>
@@ -895,15 +919,15 @@
     <t>{'label': 'signaling'}</t>
   </si>
   <si>
-    <t>{'label': 'molecular entity'}</t>
-  </si>
-  <si>
     <t>{'label': 'dye'}</t>
   </si>
   <si>
     <t>{'label': 'nucleus'}</t>
   </si>
   <si>
+    <t>{'label': 'cell'}</t>
+  </si>
+  <si>
     <t>{'label': 'suspension'}</t>
   </si>
   <si>
@@ -955,6 +979,9 @@
     <t>{'label': 'purity'}</t>
   </si>
   <si>
+    <t>{'label': 'impurity'}</t>
+  </si>
+  <si>
     <t>{'label': 'molecular quality'}</t>
   </si>
   <si>
@@ -1058,6 +1085,60 @@
   </si>
   <si>
     <t>{'altLabel': 'dimension'}</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A member of the the species Homo sapiens. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
+  </si>
+  <si>
+    <t>["An area is a 2-D extent quality inhering in a bearer by virtue of the bearer's two dimensional extent. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A length quality which is equal to the length of any straight line segment that passes through the center of a circle and whose endpoints are on the circular boundary. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance between two points. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's physical magnitude. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An EM radiation quality in which the EM radiation is within the fiat range of the spectrum visible deemed to be light. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A quality of a single physical entity inhering in the bearer by virtue of the bearer's size or shape or structure. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's relative position, shape, arrangements and connectivity of an material entity's various parts; the pattern underlying its form. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A morphological quality inhering in a bearer by virtue of the bearer's ratios of distances between its features (points, edges, surfaces and also holes etc). [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance from one side of an object to another side which is opposite. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A color is a composite chromatic quality composed of hue, saturation and intensity parts. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A size quality inhering in an bearer by virtue of the bearer's extension in one dimension. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A quality that inheres in an entire organism or part of an organism. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A size quality inhering in an bearer by virtue of the bearer's extension in three dimensions. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A 2-D extend is a  size quality inhering in an bearer by virtue of the bearer's extension in two dimensions. [PATO]"]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -1428,13 +1509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,1773 +1528,2148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>284</v>
+      </c>
+      <c r="F19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>288</v>
+      </c>
+      <c r="F23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="F25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="F26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>292</v>
+      </c>
+      <c r="F27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="F28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>296</v>
+      </c>
+      <c r="F31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="F32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>298</v>
+      </c>
+      <c r="F34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="F35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="F36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>301</v>
+      </c>
+      <c r="F37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>302</v>
+      </c>
+      <c r="F38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>303</v>
+      </c>
+      <c r="F39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>304</v>
+      </c>
+      <c r="F40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>305</v>
+      </c>
+      <c r="F41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>306</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>308</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>309</v>
+      </c>
+      <c r="F45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>310</v>
+      </c>
+      <c r="F46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>311</v>
+      </c>
+      <c r="F47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>312</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>313</v>
+      </c>
+      <c r="F49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>314</v>
+      </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>315</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>317</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>305</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>318</v>
+      </c>
+      <c r="F55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>320</v>
+      </c>
+      <c r="F57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>321</v>
+      </c>
+      <c r="F58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>322</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="F60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>324</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="F62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>326</v>
+      </c>
+      <c r="F63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E64" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>327</v>
+      </c>
+      <c r="F65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>328</v>
+      </c>
+      <c r="F66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>311</v>
+      </c>
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E68" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="F69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="F70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>330</v>
+      </c>
+      <c r="F71" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>331</v>
+      </c>
+      <c r="F72" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E73" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="F73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>333</v>
+      </c>
+      <c r="F74" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>333</v>
+      </c>
+      <c r="F75" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="E76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>333</v>
+      </c>
+      <c r="F76" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="F77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="F78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>336</v>
+      </c>
+      <c r="F79" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>337</v>
+      </c>
+      <c r="F80" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>312</v>
+      </c>
+      <c r="F81" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>338</v>
+      </c>
+      <c r="F82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>339</v>
+      </c>
+      <c r="F83" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>320</v>
+      </c>
+      <c r="F84" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E85" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>340</v>
+      </c>
+      <c r="F85" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E86" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>341</v>
+      </c>
+      <c r="F86" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>341</v>
+      </c>
+      <c r="F87" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E88" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="F88" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="E89" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="F89" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E90" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>343</v>
+      </c>
+      <c r="F90" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>317</v>
+      </c>
+      <c r="F91" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>344</v>
+      </c>
+      <c r="F92" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>345</v>
+      </c>
+      <c r="F93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>346</v>
+      </c>
+      <c r="F94" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>347</v>
+      </c>
+      <c r="F95" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>348</v>
+      </c>
+      <c r="F96" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E97" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="F97" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>349</v>
+      </c>
+      <c r="F98" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="F99" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>321</v>
+      </c>
+      <c r="F100" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>350</v>
+      </c>
+      <c r="F101" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>351</v>
+      </c>
+      <c r="F102" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>352</v>
+      </c>
+      <c r="F103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>351</v>
+      </c>
+      <c r="F104" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>347</v>
+        <v>353</v>
+      </c>
+      <c r="F105" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E106" t="s">
+        <v>354</v>
+      </c>
+      <c r="F106" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E107" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>356</v>
+      </c>
+      <c r="F108" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3250,182 +3706,188 @@
     <hyperlink ref="D16" r:id="rId30"/>
     <hyperlink ref="B17" r:id="rId31"/>
     <hyperlink ref="D17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33" location="Shape"/>
+    <hyperlink ref="B18" r:id="rId33"/>
     <hyperlink ref="D18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35" location="AFR_0000951"/>
+    <hyperlink ref="B19" r:id="rId35" location="Shape"/>
     <hyperlink ref="D19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="D20" r:id="rId38" location="BAO_0003116"/>
-    <hyperlink ref="B21" r:id="rId39" location="AFR_0000900"/>
-    <hyperlink ref="D21" r:id="rId40" location="BAO_0002172"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="D22" r:id="rId42" location="BAO_0003117"/>
+    <hyperlink ref="B20" r:id="rId37" location="AFR_0000951"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40" location="BAO_0003116"/>
+    <hyperlink ref="B22" r:id="rId41" location="AFR_0000900"/>
+    <hyperlink ref="D22" r:id="rId42" location="BAO_0002172"/>
     <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="D23" r:id="rId44" location="BAO_0002928"/>
+    <hyperlink ref="D23" r:id="rId44" location="BAO_0003117"/>
     <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="D24" r:id="rId46" location="BAO_0002929"/>
-    <hyperlink ref="B25" r:id="rId47" location="AFE_0000129"/>
-    <hyperlink ref="D25" r:id="rId48" location="BAO_0150009"/>
-    <hyperlink ref="B26" r:id="rId49" location="AFE_0000825"/>
-    <hyperlink ref="D26" r:id="rId50" location="BAO_0150008"/>
-    <hyperlink ref="B27" r:id="rId51" location="AFP_0001404"/>
-    <hyperlink ref="D27" r:id="rId52" location="BAO_0000451"/>
-    <hyperlink ref="B28" r:id="rId53" location="AFE_0000224"/>
-    <hyperlink ref="D28" r:id="rId54" location="BAO_0002733"/>
-    <hyperlink ref="B29" r:id="rId55" location="AFE_0000718"/>
-    <hyperlink ref="D29" r:id="rId56" location="BAO_0010014"/>
-    <hyperlink ref="B30" r:id="rId57" location="AFE_0002254"/>
-    <hyperlink ref="D30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59" location="AFP_0000044"/>
-    <hyperlink ref="D31" r:id="rId60" location="BAO_0002526"/>
-    <hyperlink ref="B32" r:id="rId61" location="AFR_0000937"/>
-    <hyperlink ref="D32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63" location="AFP_0000441"/>
-    <hyperlink ref="D33" r:id="rId64" location="BAO_0002414"/>
-    <hyperlink ref="B34" r:id="rId65" location="AFE_0002248"/>
-    <hyperlink ref="D34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67" location="AFP_0003552"/>
+    <hyperlink ref="D24" r:id="rId46" location="BAO_0002928"/>
+    <hyperlink ref="B25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48" location="BAO_0002929"/>
+    <hyperlink ref="B26" r:id="rId49" location="AFE_0000129"/>
+    <hyperlink ref="D26" r:id="rId50" location="BAO_0150009"/>
+    <hyperlink ref="B27" r:id="rId51" location="AFE_0000825"/>
+    <hyperlink ref="D27" r:id="rId52" location="BAO_0150008"/>
+    <hyperlink ref="B28" r:id="rId53" location="AFP_0001404"/>
+    <hyperlink ref="D28" r:id="rId54" location="BAO_0000451"/>
+    <hyperlink ref="B29" r:id="rId55" location="AFE_0000224"/>
+    <hyperlink ref="D29" r:id="rId56" location="BAO_0002733"/>
+    <hyperlink ref="B30" r:id="rId57" location="AFE_0000718"/>
+    <hyperlink ref="D30" r:id="rId58" location="BAO_0010014"/>
+    <hyperlink ref="B31" r:id="rId59" location="AFE_0002254"/>
+    <hyperlink ref="D31" r:id="rId60"/>
+    <hyperlink ref="B32" r:id="rId61" location="AFP_0000044"/>
+    <hyperlink ref="D32" r:id="rId62" location="BAO_0002526"/>
+    <hyperlink ref="B33" r:id="rId63" location="AFR_0000937"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="B34" r:id="rId65" location="AFP_0000441"/>
+    <hyperlink ref="D34" r:id="rId66" location="BAO_0002414"/>
+    <hyperlink ref="B35" r:id="rId67" location="AFE_0002248"/>
     <hyperlink ref="D35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69"/>
-    <hyperlink ref="D36" r:id="rId70" location="BAO_0003043"/>
+    <hyperlink ref="B36" r:id="rId69" location="AFP_0003552"/>
+    <hyperlink ref="D36" r:id="rId70"/>
     <hyperlink ref="B37" r:id="rId71" location="AFM_0000085"/>
     <hyperlink ref="D37" r:id="rId72"/>
     <hyperlink ref="B38" r:id="rId73" location="AFM_0000226"/>
     <hyperlink ref="D38" r:id="rId74"/>
-    <hyperlink ref="B39" r:id="rId75" location="AFM_0000442"/>
-    <hyperlink ref="D39" r:id="rId76" location="BAO_0002104"/>
-    <hyperlink ref="B40" r:id="rId77" location="AFM_0001033"/>
-    <hyperlink ref="D40" r:id="rId78" location="BAO_0010018"/>
-    <hyperlink ref="B41" r:id="rId79" location="AFM_0001085"/>
-    <hyperlink ref="D41" r:id="rId80" location="BAO_0002934"/>
-    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="B39" r:id="rId75" location="AFM_0000341"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="B40" r:id="rId77" location="AFM_0000442"/>
+    <hyperlink ref="D40" r:id="rId78" location="BAO_0002104"/>
+    <hyperlink ref="B41" r:id="rId79" location="AFM_0001033"/>
+    <hyperlink ref="D41" r:id="rId80" location="BAO_0010018"/>
+    <hyperlink ref="B42" r:id="rId81" location="AFM_0001085"/>
     <hyperlink ref="D42" r:id="rId82" location="BAO_0002934"/>
-    <hyperlink ref="B43" r:id="rId83" location="AFRL_0000269"/>
-    <hyperlink ref="D43" r:id="rId84"/>
-    <hyperlink ref="B44" r:id="rId85" location="AFP_0000634"/>
-    <hyperlink ref="D44" r:id="rId86" location="BAO_0002454"/>
-    <hyperlink ref="B45" r:id="rId87" location="AFP_0001427"/>
-    <hyperlink ref="D45" r:id="rId88" location="BAO_0000055"/>
-    <hyperlink ref="B46" r:id="rId89"/>
-    <hyperlink ref="D46" r:id="rId90"/>
-    <hyperlink ref="B47" r:id="rId91" location="AFP_0003300"/>
-    <hyperlink ref="D47" r:id="rId92" location="BAO_0002770"/>
-    <hyperlink ref="B48" r:id="rId93" location="AFRL_0000148"/>
-    <hyperlink ref="D48" r:id="rId94" location="BAO_0003064"/>
-    <hyperlink ref="B49" r:id="rId95" location="AFQ_0000184"/>
-    <hyperlink ref="D49" r:id="rId96" location="BAO_0080041"/>
-    <hyperlink ref="B50" r:id="rId97" location="AFP_0003721"/>
-    <hyperlink ref="D50" r:id="rId98" location="BAO_0040003"/>
-    <hyperlink ref="B51" r:id="rId99" location="AFP_0003770"/>
-    <hyperlink ref="D51" r:id="rId100" location="BAO_0002080"/>
-    <hyperlink ref="B52" r:id="rId101" location="AFP_0003797"/>
-    <hyperlink ref="D52" r:id="rId102" location="BAO_0002769"/>
-    <hyperlink ref="B53" r:id="rId103" location="AFQ_0000120"/>
-    <hyperlink ref="D53" r:id="rId104" location="BAO_0010018"/>
-    <hyperlink ref="B54" r:id="rId105" location="AFQ_0000005"/>
-    <hyperlink ref="D54" r:id="rId106"/>
-    <hyperlink ref="B55" r:id="rId107" location="AFQ_0000061"/>
-    <hyperlink ref="D55" r:id="rId108" location="BAO_0000070"/>
-    <hyperlink ref="B56" r:id="rId109" location="AFQ_0000209"/>
-    <hyperlink ref="D56" r:id="rId110" location="BAO_0002618"/>
-    <hyperlink ref="B57" r:id="rId111" location="AFQ_0000252"/>
-    <hyperlink ref="D57" r:id="rId112"/>
-    <hyperlink ref="B58" r:id="rId113" location="AFRE_0000012"/>
+    <hyperlink ref="B43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84" location="BAO_0002934"/>
+    <hyperlink ref="B44" r:id="rId85" location="AFRL_0000269"/>
+    <hyperlink ref="D44" r:id="rId86"/>
+    <hyperlink ref="B45" r:id="rId87" location="AFP_0000634"/>
+    <hyperlink ref="D45" r:id="rId88" location="BAO_0002454"/>
+    <hyperlink ref="B46" r:id="rId89" location="AFP_0001427"/>
+    <hyperlink ref="D46" r:id="rId90" location="BAO_0000055"/>
+    <hyperlink ref="B47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92"/>
+    <hyperlink ref="B48" r:id="rId93" location="AFP_0003300"/>
+    <hyperlink ref="D48" r:id="rId94" location="BAO_0002770"/>
+    <hyperlink ref="B49" r:id="rId95" location="AFRL_0000148"/>
+    <hyperlink ref="D49" r:id="rId96" location="BAO_0003064"/>
+    <hyperlink ref="B50" r:id="rId97" location="AFQ_0000184"/>
+    <hyperlink ref="D50" r:id="rId98" location="BAO_0080041"/>
+    <hyperlink ref="B51" r:id="rId99" location="AFP_0003721"/>
+    <hyperlink ref="D51" r:id="rId100" location="BAO_0040003"/>
+    <hyperlink ref="B52" r:id="rId101" location="AFP_0003770"/>
+    <hyperlink ref="D52" r:id="rId102" location="BAO_0002080"/>
+    <hyperlink ref="B53" r:id="rId103" location="AFP_0003797"/>
+    <hyperlink ref="D53" r:id="rId104" location="BAO_0002769"/>
+    <hyperlink ref="B54" r:id="rId105" location="AFQ_0000120"/>
+    <hyperlink ref="D54" r:id="rId106" location="BAO_0010018"/>
+    <hyperlink ref="B55" r:id="rId107" location="AFQ_0000005"/>
+    <hyperlink ref="D55" r:id="rId108"/>
+    <hyperlink ref="B56" r:id="rId109" location="AFQ_0000061"/>
+    <hyperlink ref="D56" r:id="rId110" location="BAO_0000070"/>
+    <hyperlink ref="B57" r:id="rId111" location="AFQ_0000209"/>
+    <hyperlink ref="D57" r:id="rId112" location="BAO_0002618"/>
+    <hyperlink ref="B58" r:id="rId113" location="AFQ_0000222"/>
     <hyperlink ref="D58" r:id="rId114"/>
-    <hyperlink ref="B59" r:id="rId115" location="AFRE_0000013"/>
+    <hyperlink ref="B59" r:id="rId115" location="AFQ_0000252"/>
     <hyperlink ref="D59" r:id="rId116"/>
-    <hyperlink ref="B60" r:id="rId117" location="AFR_0000935"/>
+    <hyperlink ref="B60" r:id="rId117" location="AFRE_0000012"/>
     <hyperlink ref="D60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119" location="AFR_0000954"/>
-    <hyperlink ref="D61" r:id="rId120" location="BAO_0080019"/>
-    <hyperlink ref="B62" r:id="rId121" location="AFR_0000966"/>
+    <hyperlink ref="B61" r:id="rId119" location="AFRE_0000013"/>
+    <hyperlink ref="D61" r:id="rId120"/>
+    <hyperlink ref="B62" r:id="rId121" location="AFR_0000935"/>
     <hyperlink ref="D62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123" location="AFR_0001072"/>
-    <hyperlink ref="D63" r:id="rId124" location="BAO_0000138"/>
-    <hyperlink ref="B64" r:id="rId125" location="AFR_0001090"/>
-    <hyperlink ref="D64" r:id="rId126" location="BAO_0002121"/>
-    <hyperlink ref="B65" r:id="rId127" location="AFR_0001142"/>
-    <hyperlink ref="D65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129" location="AFR_0001157"/>
-    <hyperlink ref="D66" r:id="rId130" location="BAO_0000070"/>
-    <hyperlink ref="B67" r:id="rId131" location="AFR_0001159"/>
-    <hyperlink ref="D67" r:id="rId132" location="BAO_0000565"/>
-    <hyperlink ref="B68" r:id="rId133"/>
-    <hyperlink ref="D68" r:id="rId134" location="BAO_0000565"/>
-    <hyperlink ref="B69" r:id="rId135"/>
-    <hyperlink ref="D69" r:id="rId136" location="BAO_0000558"/>
+    <hyperlink ref="B63" r:id="rId123" location="AFR_0000954"/>
+    <hyperlink ref="D63" r:id="rId124" location="BAO_0080019"/>
+    <hyperlink ref="B64" r:id="rId125" location="AFR_0000966"/>
+    <hyperlink ref="D64" r:id="rId126"/>
+    <hyperlink ref="B65" r:id="rId127" location="AFR_0001072"/>
+    <hyperlink ref="D65" r:id="rId128" location="BAO_0000138"/>
+    <hyperlink ref="B66" r:id="rId129" location="AFR_0001090"/>
+    <hyperlink ref="D66" r:id="rId130" location="BAO_0002121"/>
+    <hyperlink ref="B67" r:id="rId131" location="AFR_0001142"/>
+    <hyperlink ref="D67" r:id="rId132"/>
+    <hyperlink ref="B68" r:id="rId133" location="AFR_0001157"/>
+    <hyperlink ref="D68" r:id="rId134" location="BAO_0000070"/>
+    <hyperlink ref="B69" r:id="rId135" location="AFR_0001159"/>
+    <hyperlink ref="D69" r:id="rId136" location="BAO_0000565"/>
     <hyperlink ref="B70" r:id="rId137"/>
-    <hyperlink ref="D70" r:id="rId138" location="BAO_0003119"/>
-    <hyperlink ref="B71" r:id="rId139" location="AFR_0001508"/>
-    <hyperlink ref="D71" r:id="rId140" location="BAO_0002335"/>
-    <hyperlink ref="B72" r:id="rId141" location="AFR_0002537"/>
-    <hyperlink ref="D72" r:id="rId142"/>
-    <hyperlink ref="B73" r:id="rId143" location="AFR_0001589"/>
-    <hyperlink ref="D73" r:id="rId144"/>
-    <hyperlink ref="B74" r:id="rId145" location="AFR_0001590"/>
+    <hyperlink ref="D70" r:id="rId138" location="BAO_0000565"/>
+    <hyperlink ref="B71" r:id="rId139"/>
+    <hyperlink ref="D71" r:id="rId140" location="BAO_0000558"/>
+    <hyperlink ref="B72" r:id="rId141"/>
+    <hyperlink ref="D72" r:id="rId142" location="BAO_0003119"/>
+    <hyperlink ref="B73" r:id="rId143" location="AFR_0001508"/>
+    <hyperlink ref="D73" r:id="rId144" location="BAO_0002335"/>
+    <hyperlink ref="B74" r:id="rId145" location="AFR_0002537"/>
     <hyperlink ref="D74" r:id="rId146"/>
-    <hyperlink ref="B75" r:id="rId147" location="AFR_0001817"/>
+    <hyperlink ref="B75" r:id="rId147" location="AFR_0001589"/>
     <hyperlink ref="D75" r:id="rId148"/>
-    <hyperlink ref="B76" r:id="rId149" location="AFR_0001843"/>
+    <hyperlink ref="B76" r:id="rId149" location="AFR_0001590"/>
     <hyperlink ref="D76" r:id="rId150"/>
-    <hyperlink ref="B77" r:id="rId151" location="AFRL_0000157"/>
-    <hyperlink ref="D77" r:id="rId152" location="BAO_0002070"/>
-    <hyperlink ref="B78" r:id="rId153" location="AFR_0001980"/>
-    <hyperlink ref="D78" r:id="rId154" location="BAO_0000525"/>
-    <hyperlink ref="B79" r:id="rId155" location="AFR_0002056"/>
-    <hyperlink ref="D79" r:id="rId156" location="BAO_0002770"/>
-    <hyperlink ref="B80" r:id="rId157" location="AFR_0002076"/>
-    <hyperlink ref="D80" r:id="rId158"/>
-    <hyperlink ref="B81" r:id="rId159" location="AFR_0002107"/>
-    <hyperlink ref="D81" r:id="rId160"/>
-    <hyperlink ref="B82" r:id="rId161" location="AFR_0002371"/>
-    <hyperlink ref="D82" r:id="rId162" location="BAO_0002618"/>
-    <hyperlink ref="B83" r:id="rId163" location="AFR_0002208"/>
-    <hyperlink ref="D83" r:id="rId164" location="BAO_0002173"/>
-    <hyperlink ref="B84" r:id="rId165" location="AFR_0002192"/>
-    <hyperlink ref="D84" r:id="rId166" location="BAO_0002176"/>
-    <hyperlink ref="B85" r:id="rId167" location="AFRL_0000527"/>
-    <hyperlink ref="D85" r:id="rId168" location="BAO_0002176"/>
-    <hyperlink ref="B86" r:id="rId169" location="AFR_0002209"/>
-    <hyperlink ref="D86" r:id="rId170" location="BAO_0002174"/>
-    <hyperlink ref="B87" r:id="rId171" location="AFRL_0000321"/>
-    <hyperlink ref="D87" r:id="rId172" location="BAO_0002174"/>
-    <hyperlink ref="B88" r:id="rId173" location="AFR_0002261"/>
-    <hyperlink ref="D88" r:id="rId174" location="BAO_0000071"/>
-    <hyperlink ref="B89" r:id="rId175" location="AFR_0002365"/>
-    <hyperlink ref="D89" r:id="rId176" location="BAO_0002769"/>
-    <hyperlink ref="B90" r:id="rId177" location="AFRL_0000539"/>
-    <hyperlink ref="D90" r:id="rId178" location="BAO_0000531"/>
-    <hyperlink ref="B91" r:id="rId179" location="AFR_0002599"/>
-    <hyperlink ref="D91" r:id="rId180"/>
-    <hyperlink ref="B92" r:id="rId181" location="AFRL_0000154"/>
-    <hyperlink ref="D92" r:id="rId182" location="BAO_0002068"/>
-    <hyperlink ref="B93" r:id="rId183" location="AFRL_0000217"/>
+    <hyperlink ref="B77" r:id="rId151" location="AFR_0001817"/>
+    <hyperlink ref="D77" r:id="rId152"/>
+    <hyperlink ref="B78" r:id="rId153" location="AFR_0001843"/>
+    <hyperlink ref="D78" r:id="rId154"/>
+    <hyperlink ref="B79" r:id="rId155" location="AFRL_0000157"/>
+    <hyperlink ref="D79" r:id="rId156" location="BAO_0002070"/>
+    <hyperlink ref="B80" r:id="rId157" location="AFR_0001980"/>
+    <hyperlink ref="D80" r:id="rId158" location="BAO_0000525"/>
+    <hyperlink ref="B81" r:id="rId159" location="AFR_0002056"/>
+    <hyperlink ref="D81" r:id="rId160" location="BAO_0002770"/>
+    <hyperlink ref="B82" r:id="rId161" location="AFR_0002076"/>
+    <hyperlink ref="D82" r:id="rId162"/>
+    <hyperlink ref="B83" r:id="rId163" location="AFR_0002107"/>
+    <hyperlink ref="D83" r:id="rId164"/>
+    <hyperlink ref="B84" r:id="rId165" location="AFR_0002371"/>
+    <hyperlink ref="D84" r:id="rId166" location="BAO_0002618"/>
+    <hyperlink ref="B85" r:id="rId167" location="AFR_0002208"/>
+    <hyperlink ref="D85" r:id="rId168" location="BAO_0002173"/>
+    <hyperlink ref="B86" r:id="rId169" location="AFR_0002192"/>
+    <hyperlink ref="D86" r:id="rId170" location="BAO_0002176"/>
+    <hyperlink ref="B87" r:id="rId171" location="AFRL_0000527"/>
+    <hyperlink ref="D87" r:id="rId172" location="BAO_0002176"/>
+    <hyperlink ref="B88" r:id="rId173" location="AFR_0002209"/>
+    <hyperlink ref="D88" r:id="rId174" location="BAO_0002174"/>
+    <hyperlink ref="B89" r:id="rId175" location="AFRL_0000321"/>
+    <hyperlink ref="D89" r:id="rId176" location="BAO_0002174"/>
+    <hyperlink ref="B90" r:id="rId177" location="AFR_0002261"/>
+    <hyperlink ref="D90" r:id="rId178" location="BAO_0000071"/>
+    <hyperlink ref="B91" r:id="rId179" location="AFR_0002365"/>
+    <hyperlink ref="D91" r:id="rId180" location="BAO_0002769"/>
+    <hyperlink ref="B92" r:id="rId181" location="AFRL_0000539"/>
+    <hyperlink ref="D92" r:id="rId182" location="BAO_0000531"/>
+    <hyperlink ref="B93" r:id="rId183" location="AFR_0002599"/>
     <hyperlink ref="D93" r:id="rId184"/>
-    <hyperlink ref="B94" r:id="rId185"/>
-    <hyperlink ref="D94" r:id="rId186"/>
-    <hyperlink ref="B95" r:id="rId187" location="AFRL_0000223"/>
+    <hyperlink ref="B94" r:id="rId185" location="AFRL_0000154"/>
+    <hyperlink ref="D94" r:id="rId186" location="BAO_0002068"/>
+    <hyperlink ref="B95" r:id="rId187" location="AFRL_0000217"/>
     <hyperlink ref="D95" r:id="rId188"/>
-    <hyperlink ref="B96" r:id="rId189" location="AFRL_0000226"/>
+    <hyperlink ref="B96" r:id="rId189"/>
     <hyperlink ref="D96" r:id="rId190"/>
-    <hyperlink ref="B97" r:id="rId191" location="AFRL_0000244"/>
+    <hyperlink ref="B97" r:id="rId191" location="AFRL_0000223"/>
     <hyperlink ref="D97" r:id="rId192"/>
-    <hyperlink ref="B98" r:id="rId193" location="AFRL_0000405"/>
-    <hyperlink ref="D98" r:id="rId194" location="BAO_0165001"/>
-    <hyperlink ref="B99" r:id="rId195" location="AFRL_0000443"/>
-    <hyperlink ref="D99" r:id="rId196" location="BAO_0003067"/>
-    <hyperlink ref="B100" r:id="rId197" location="AFRL_0000480"/>
+    <hyperlink ref="B98" r:id="rId193" location="AFRL_0000226"/>
+    <hyperlink ref="D98" r:id="rId194"/>
+    <hyperlink ref="B99" r:id="rId195" location="AFRL_0000244"/>
+    <hyperlink ref="D99" r:id="rId196"/>
+    <hyperlink ref="B100" r:id="rId197" location="AFRL_0000364"/>
     <hyperlink ref="D100" r:id="rId198"/>
-    <hyperlink ref="B101" r:id="rId199" location="AFRL_0000496"/>
-    <hyperlink ref="D101" r:id="rId200" location="BAO_0003067"/>
-    <hyperlink ref="B102" r:id="rId201"/>
-    <hyperlink ref="D102" r:id="rId202" location="BAO_0000551"/>
-    <hyperlink ref="B103" r:id="rId203"/>
-    <hyperlink ref="D103" r:id="rId204" location="BAO_0002808"/>
-    <hyperlink ref="B104" r:id="rId205"/>
-    <hyperlink ref="D104" r:id="rId206"/>
-    <hyperlink ref="B105" r:id="rId207" location="Dimension"/>
-    <hyperlink ref="D105" r:id="rId208"/>
+    <hyperlink ref="B101" r:id="rId199" location="AFRL_0000405"/>
+    <hyperlink ref="D101" r:id="rId200" location="BAO_0165001"/>
+    <hyperlink ref="B102" r:id="rId201" location="AFRL_0000443"/>
+    <hyperlink ref="D102" r:id="rId202" location="BAO_0003067"/>
+    <hyperlink ref="B103" r:id="rId203" location="AFRL_0000480"/>
+    <hyperlink ref="D103" r:id="rId204"/>
+    <hyperlink ref="B104" r:id="rId205" location="AFRL_0000496"/>
+    <hyperlink ref="D104" r:id="rId206" location="BAO_0003067"/>
+    <hyperlink ref="B105" r:id="rId207"/>
+    <hyperlink ref="D105" r:id="rId208" location="BAO_0000551"/>
+    <hyperlink ref="B106" r:id="rId209"/>
+    <hyperlink ref="D106" r:id="rId210" location="BAO_0002808"/>
+    <hyperlink ref="B107" r:id="rId211"/>
+    <hyperlink ref="D107" r:id="rId212"/>
+    <hyperlink ref="B108" r:id="rId213" location="Dimension"/>
+    <hyperlink ref="D108" r:id="rId214"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
